--- a/data/trans_dic/P25_7-Edad-trans_dic.xlsx
+++ b/data/trans_dic/P25_7-Edad-trans_dic.xlsx
@@ -7,7 +7,8 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Transversal dicotómica" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Porcentajes" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Totales" sheetId="2" state="visible" r:id="rId2"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -504,7 +505,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:K17"/>
+  <dimension ref="A1:N18"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -526,12 +527,15 @@
     <col width="14" customWidth="1" min="9" max="9"/>
     <col width="14" customWidth="1" min="10" max="10"/>
     <col width="14" customWidth="1" min="11" max="11"/>
+    <col width="14" customWidth="1" min="12" max="12"/>
+    <col width="14" customWidth="1" min="13" max="13"/>
+    <col width="14" customWidth="1" min="14" max="14"/>
   </cols>
   <sheetData>
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>Población que padece dolor crónico (pecho; espalda, cuello, hombro, cintura (cervical/lumbar); migrañas/jaquecas/cefaleas crónicas/dolor de cabeza frecuente)</t>
+          <t>Población que padece dolor crónico (pecho; espalda, cuello, hombro, cintura (cervical/lumbar); migrañas/jaquecas/cefaleas crónicas/dolor de cabeza frecuente) (tasa de respuesta: 99,92%)</t>
         </is>
       </c>
       <c r="B1" s="2" t="n"/>
@@ -542,20 +546,23 @@
       </c>
       <c r="D1" s="3" t="n"/>
       <c r="E1" s="3" t="n"/>
-      <c r="F1" s="3" t="inlineStr">
+      <c r="F1" s="3" t="n"/>
+      <c r="G1" s="3" t="inlineStr">
         <is>
           <t>Mujer</t>
         </is>
       </c>
-      <c r="G1" s="3" t="n"/>
       <c r="H1" s="3" t="n"/>
-      <c r="I1" s="3" t="inlineStr">
+      <c r="I1" s="3" t="n"/>
+      <c r="J1" s="3" t="n"/>
+      <c r="K1" s="3" t="inlineStr">
         <is>
           <t>Total</t>
         </is>
       </c>
-      <c r="J1" s="3" t="n"/>
-      <c r="K1" s="3" t="n"/>
+      <c r="L1" s="3" t="n"/>
+      <c r="M1" s="3" t="n"/>
+      <c r="N1" s="3" t="n"/>
     </row>
     <row r="2">
       <c r="A2" s="4" t="n"/>
@@ -577,32 +584,47 @@
       </c>
       <c r="F2" s="3" t="inlineStr">
         <is>
+          <t>M5</t>
+        </is>
+      </c>
+      <c r="G2" s="3" t="inlineStr">
+        <is>
           <t>M2</t>
         </is>
       </c>
-      <c r="G2" s="3" t="inlineStr">
+      <c r="H2" s="3" t="inlineStr">
         <is>
           <t>M3</t>
         </is>
       </c>
-      <c r="H2" s="3" t="inlineStr">
+      <c r="I2" s="3" t="inlineStr">
         <is>
           <t>M4</t>
         </is>
       </c>
-      <c r="I2" s="3" t="inlineStr">
+      <c r="J2" s="3" t="inlineStr">
+        <is>
+          <t>M5</t>
+        </is>
+      </c>
+      <c r="K2" s="3" t="inlineStr">
         <is>
           <t>M2</t>
         </is>
       </c>
-      <c r="J2" s="3" t="inlineStr">
+      <c r="L2" s="3" t="inlineStr">
         <is>
           <t>M3</t>
         </is>
       </c>
-      <c r="K2" s="3" t="inlineStr">
+      <c r="M2" s="3" t="inlineStr">
         <is>
           <t>M4</t>
+        </is>
+      </c>
+      <c r="N2" s="3" t="inlineStr">
+        <is>
+          <t>M5</t>
         </is>
       </c>
     </row>
@@ -618,6 +640,9 @@
       <c r="I3" s="2" t="n"/>
       <c r="J3" s="2" t="n"/>
       <c r="K3" s="2" t="n"/>
+      <c r="L3" s="2" t="n"/>
+      <c r="M3" s="2" t="n"/>
+      <c r="N3" s="2" t="n"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
@@ -632,47 +657,62 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>6,26%</t>
+          <t>12,41%</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>10,51%</t>
+          <t>19,12%</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>4,91%</t>
+          <t>3,91%</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>12,13%</t>
+          <t>26,87%</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
         <is>
-          <t>18,22%</t>
+          <t>17,56%</t>
         </is>
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>16,39%</t>
+          <t>15,95%</t>
         </is>
       </c>
       <c r="I4" s="2" t="inlineStr">
         <is>
-          <t>9,33%</t>
+          <t>11,26%</t>
         </is>
       </c>
       <c r="J4" s="2" t="inlineStr">
         <is>
-          <t>14,31%</t>
+          <t>14,27%</t>
         </is>
       </c>
       <c r="K4" s="2" t="inlineStr">
         <is>
-          <t>10,09%</t>
+          <t>15,28%</t>
+        </is>
+      </c>
+      <c r="L4" s="2" t="inlineStr">
+        <is>
+          <t>17,43%</t>
+        </is>
+      </c>
+      <c r="M4" s="2" t="inlineStr">
+        <is>
+          <t>7,51%</t>
+        </is>
+      </c>
+      <c r="N4" s="2" t="inlineStr">
+        <is>
+          <t>20,58%</t>
         </is>
       </c>
     </row>
@@ -685,47 +725,62 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>1,79; 14,75</t>
+          <t>3,19; 28,27</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>4,46; 20,68</t>
+          <t>7,84; 38,23</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>1,39; 14,13</t>
+          <t>0,0; 20,86</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>6,1; 20,62</t>
+          <t>12,93; 46,55</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>9,18; 34,19</t>
+          <t>7,96; 34,13</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>7,27; 36,57</t>
+          <t>6,83; 29,48</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>5,09; 15,05</t>
+          <t>4,17; 22,93</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>8,73; 23,9</t>
+          <t>5,1; 27,23</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>4,95; 20,47</t>
+          <t>8,69; 25,34</t>
+        </is>
+      </c>
+      <c r="L5" s="2" t="inlineStr">
+        <is>
+          <t>9,8; 27,73</t>
+        </is>
+      </c>
+      <c r="M5" s="2" t="inlineStr">
+        <is>
+          <t>3,06; 15,25</t>
+        </is>
+      </c>
+      <c r="N5" s="2" t="inlineStr">
+        <is>
+          <t>12,72; 31,73</t>
         </is>
       </c>
     </row>
@@ -742,47 +797,62 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>11,31%</t>
+          <t>13,76%</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>15,47%</t>
+          <t>18,35%</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>24,99%</t>
+          <t>33,22%</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>25,3%</t>
+          <t>28,33%</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
         <is>
-          <t>24,4%</t>
+          <t>26,67%</t>
         </is>
       </c>
       <c r="H6" s="2" t="inlineStr">
         <is>
-          <t>20,05%</t>
+          <t>32,02%</t>
         </is>
       </c>
       <c r="I6" s="2" t="inlineStr">
         <is>
-          <t>18,71%</t>
+          <t>24,34%</t>
         </is>
       </c>
       <c r="J6" s="2" t="inlineStr">
         <is>
-          <t>19,93%</t>
+          <t>30,04%</t>
         </is>
       </c>
       <c r="K6" s="2" t="inlineStr">
         <is>
-          <t>22,63%</t>
+          <t>20,22%</t>
+        </is>
+      </c>
+      <c r="L6" s="2" t="inlineStr">
+        <is>
+          <t>24,76%</t>
+        </is>
+      </c>
+      <c r="M6" s="2" t="inlineStr">
+        <is>
+          <t>29,22%</t>
+        </is>
+      </c>
+      <c r="N6" s="2" t="inlineStr">
+        <is>
+          <t>29,04%</t>
         </is>
       </c>
     </row>
@@ -795,47 +865,62 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>5,87; 22,04</t>
+          <t>5,29; 29,11</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>7,85; 27,23</t>
+          <t>8,16; 33,44</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>14,62; 45,19</t>
+          <t>15,57; 59,82</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>17,18; 36,18</t>
+          <t>10,78; 57,12</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>16,54; 34,31</t>
+          <t>15,76; 39,64</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>11,95; 29,19</t>
+          <t>19,83; 44,13</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>12,7; 25,78</t>
+          <t>14,69; 37,6</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>14,2; 27,66</t>
+          <t>18,51; 45,91</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>15,64; 34,04</t>
+          <t>12,26; 29,41</t>
+        </is>
+      </c>
+      <c r="L7" s="2" t="inlineStr">
+        <is>
+          <t>15,76; 34,88</t>
+        </is>
+      </c>
+      <c r="M7" s="2" t="inlineStr">
+        <is>
+          <t>17,73; 45,44</t>
+        </is>
+      </c>
+      <c r="N7" s="2" t="inlineStr">
+        <is>
+          <t>16,92; 47,49</t>
         </is>
       </c>
     </row>
@@ -852,47 +937,62 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>19,04%</t>
+          <t>22,03%</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>16,83%</t>
+          <t>16,39%</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>11,25%</t>
+          <t>17,41%</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>27,51%</t>
+          <t>9,49%</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
-          <t>27,54%</t>
+          <t>28,99%</t>
         </is>
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>23,96%</t>
+          <t>26,77%</t>
         </is>
       </c>
       <c r="I8" s="2" t="inlineStr">
         <is>
-          <t>23,48%</t>
+          <t>25,93%</t>
         </is>
       </c>
       <c r="J8" s="2" t="inlineStr">
         <is>
-          <t>22,5%</t>
+          <t>24,88%</t>
         </is>
       </c>
       <c r="K8" s="2" t="inlineStr">
         <is>
-          <t>17,73%</t>
+          <t>26,34%</t>
+        </is>
+      </c>
+      <c r="L8" s="2" t="inlineStr">
+        <is>
+          <t>22,71%</t>
+        </is>
+      </c>
+      <c r="M8" s="2" t="inlineStr">
+        <is>
+          <t>22,44%</t>
+        </is>
+      </c>
+      <c r="N8" s="2" t="inlineStr">
+        <is>
+          <t>18,27%</t>
         </is>
       </c>
     </row>
@@ -905,47 +1005,62 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>10,44; 41,46</t>
+          <t>12,41; 34,48</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>9,83; 30,77</t>
+          <t>8,6; 26,78</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>6,51; 18,89</t>
+          <t>8,86; 28,44</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>20,56; 34,98</t>
+          <t>3,74; 19,15</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>21,02; 35,39</t>
+          <t>20,64; 38,13</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>17,03; 31,22</t>
+          <t>19,43; 36,33</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>17,61; 32,75</t>
+          <t>17,82; 34,92</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>17,15; 29,41</t>
+          <t>16,77; 34,5</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>13,88; 22,98</t>
+          <t>20,14; 33,85</t>
+        </is>
+      </c>
+      <c r="L9" s="2" t="inlineStr">
+        <is>
+          <t>16,55; 29,36</t>
+        </is>
+      </c>
+      <c r="M9" s="2" t="inlineStr">
+        <is>
+          <t>15,69; 29,06</t>
+        </is>
+      </c>
+      <c r="N9" s="2" t="inlineStr">
+        <is>
+          <t>12,3; 24,32</t>
         </is>
       </c>
     </row>
@@ -962,47 +1077,62 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>20,75%</t>
+          <t>26,65%</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>22,83%</t>
+          <t>25,49%</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>21,33%</t>
+          <t>23,78%</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>37,22%</t>
+          <t>35,82%</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
-          <t>38,67%</t>
+          <t>39,8%</t>
         </is>
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>36,18%</t>
+          <t>36,1%</t>
         </is>
       </c>
       <c r="I10" s="2" t="inlineStr">
         <is>
-          <t>29,87%</t>
+          <t>33,98%</t>
         </is>
       </c>
       <c r="J10" s="2" t="inlineStr">
         <is>
-          <t>31,51%</t>
+          <t>37,45%</t>
         </is>
       </c>
       <c r="K10" s="2" t="inlineStr">
         <is>
-          <t>29,24%</t>
+          <t>33,74%</t>
+        </is>
+      </c>
+      <c r="L10" s="2" t="inlineStr">
+        <is>
+          <t>31,18%</t>
+        </is>
+      </c>
+      <c r="M10" s="2" t="inlineStr">
+        <is>
+          <t>29,08%</t>
+        </is>
+      </c>
+      <c r="N10" s="2" t="inlineStr">
+        <is>
+          <t>36,66%</t>
         </is>
       </c>
     </row>
@@ -1015,47 +1145,62 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>13,85; 27,89</t>
+          <t>17,53; 36,73</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>16,42; 31,07</t>
+          <t>16,85; 36,29</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>14,55; 28,55</t>
+          <t>15,63; 33,47</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>30,14; 44,21</t>
+          <t>25,31; 47,47</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>30,99; 45,93</t>
+          <t>30,72; 49,52</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>28,87; 42,83</t>
+          <t>27,24; 45,25</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>24,94; 34,91</t>
+          <t>25,87; 44,33</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>26,4; 36,83</t>
+          <t>28,83; 47,73</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>24,02; 34,51</t>
+          <t>26,7; 40,78</t>
+        </is>
+      </c>
+      <c r="L11" s="2" t="inlineStr">
+        <is>
+          <t>24,85; 38,3</t>
+        </is>
+      </c>
+      <c r="M11" s="2" t="inlineStr">
+        <is>
+          <t>22,83; 35,49</t>
+        </is>
+      </c>
+      <c r="N11" s="2" t="inlineStr">
+        <is>
+          <t>29,7; 43,83</t>
         </is>
       </c>
     </row>
@@ -1072,47 +1217,62 @@
       </c>
       <c r="C12" s="2" t="inlineStr">
         <is>
-          <t>26,22%</t>
+          <t>26,07%</t>
         </is>
       </c>
       <c r="D12" s="2" t="inlineStr">
         <is>
-          <t>24,27%</t>
+          <t>25,24%</t>
         </is>
       </c>
       <c r="E12" s="2" t="inlineStr">
         <is>
-          <t>20,8%</t>
+          <t>25,01%</t>
         </is>
       </c>
       <c r="F12" s="2" t="inlineStr">
         <is>
-          <t>47,53%</t>
+          <t>29,74%</t>
         </is>
       </c>
       <c r="G12" s="2" t="inlineStr">
         <is>
-          <t>42,86%</t>
+          <t>39,36%</t>
         </is>
       </c>
       <c r="H12" s="2" t="inlineStr">
         <is>
-          <t>45,99%</t>
+          <t>43,25%</t>
         </is>
       </c>
       <c r="I12" s="2" t="inlineStr">
         <is>
-          <t>36,37%</t>
+          <t>43,98%</t>
         </is>
       </c>
       <c r="J12" s="2" t="inlineStr">
         <is>
-          <t>33,14%</t>
+          <t>57,73%</t>
         </is>
       </c>
       <c r="K12" s="2" t="inlineStr">
         <is>
-          <t>33,04%</t>
+          <t>31,65%</t>
+        </is>
+      </c>
+      <c r="L12" s="2" t="inlineStr">
+        <is>
+          <t>32,72%</t>
+        </is>
+      </c>
+      <c r="M12" s="2" t="inlineStr">
+        <is>
+          <t>33,16%</t>
+        </is>
+      </c>
+      <c r="N12" s="2" t="inlineStr">
+        <is>
+          <t>42,89%</t>
         </is>
       </c>
     </row>
@@ -1125,47 +1285,62 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>18,61; 34,93</t>
+          <t>15,61; 36,69</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>16,82; 33,22</t>
+          <t>15,61; 37,17</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>14,52; 28,69</t>
+          <t>14,77; 36,76</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>37,88; 57,3</t>
+          <t>18,39; 41,5</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>33,73; 52,16</t>
+          <t>26,47; 53,62</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>36,3; 55,78</t>
+          <t>30,53; 57,0</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>29,95; 42,44</t>
+          <t>31,28; 58,5</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>27,19; 39,71</t>
+          <t>42,75; 71,37</t>
         </is>
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>26,64; 39,41</t>
+          <t>22,79; 39,87</t>
+        </is>
+      </c>
+      <c r="L13" s="2" t="inlineStr">
+        <is>
+          <t>24,12; 41,03</t>
+        </is>
+      </c>
+      <c r="M13" s="2" t="inlineStr">
+        <is>
+          <t>24,42; 41,66</t>
+        </is>
+      </c>
+      <c r="N13" s="2" t="inlineStr">
+        <is>
+          <t>34,22; 52,23</t>
         </is>
       </c>
     </row>
@@ -1182,47 +1357,62 @@
       </c>
       <c r="C14" s="2" t="inlineStr">
         <is>
-          <t>25,02%</t>
+          <t>36,42%</t>
         </is>
       </c>
       <c r="D14" s="2" t="inlineStr">
         <is>
-          <t>21,1%</t>
+          <t>19,86%</t>
         </is>
       </c>
       <c r="E14" s="2" t="inlineStr">
         <is>
-          <t>21,4%</t>
+          <t>17,42%</t>
         </is>
       </c>
       <c r="F14" s="2" t="inlineStr">
         <is>
-          <t>49,69%</t>
+          <t>29,18%</t>
         </is>
       </c>
       <c r="G14" s="2" t="inlineStr">
         <is>
-          <t>46,12%</t>
+          <t>52,15%</t>
         </is>
       </c>
       <c r="H14" s="2" t="inlineStr">
         <is>
-          <t>42,94%</t>
+          <t>53,45%</t>
         </is>
       </c>
       <c r="I14" s="2" t="inlineStr">
         <is>
-          <t>38,88%</t>
+          <t>43,54%</t>
         </is>
       </c>
       <c r="J14" s="2" t="inlineStr">
         <is>
-          <t>35,7%</t>
+          <t>53,18%</t>
         </is>
       </c>
       <c r="K14" s="2" t="inlineStr">
         <is>
-          <t>34,31%</t>
+          <t>45,19%</t>
+        </is>
+      </c>
+      <c r="L14" s="2" t="inlineStr">
+        <is>
+          <t>38,21%</t>
+        </is>
+      </c>
+      <c r="M14" s="2" t="inlineStr">
+        <is>
+          <t>31,81%</t>
+        </is>
+      </c>
+      <c r="N14" s="2" t="inlineStr">
+        <is>
+          <t>43,69%</t>
         </is>
       </c>
     </row>
@@ -1235,47 +1425,62 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>15,88; 36,55</t>
+          <t>21,04; 51,41</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>12,76; 31,11</t>
+          <t>9,83; 34,6</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>13,17; 32,05</t>
+          <t>7,35; 31,17</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>38,65; 61,23</t>
+          <t>16,11; 45,32</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>30,97; 57,14</t>
+          <t>36,89; 66,37</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>22,52; 55,41</t>
+          <t>38,12; 69,73</t>
         </is>
       </c>
       <c r="I15" s="2" t="inlineStr">
         <is>
-          <t>31,56; 46,82</t>
+          <t>27,18; 58,46</t>
         </is>
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>27,61; 44,35</t>
+          <t>36,45; 72,35</t>
         </is>
       </c>
       <c r="K15" s="2" t="inlineStr">
         <is>
-          <t>23,55; 43,21</t>
+          <t>35,17; 56,58</t>
+        </is>
+      </c>
+      <c r="L15" s="2" t="inlineStr">
+        <is>
+          <t>28,26; 49,52</t>
+        </is>
+      </c>
+      <c r="M15" s="2" t="inlineStr">
+        <is>
+          <t>22,56; 43,99</t>
+        </is>
+      </c>
+      <c r="N15" s="2" t="inlineStr">
+        <is>
+          <t>30,76; 56,62</t>
         </is>
       </c>
     </row>
@@ -1292,47 +1497,62 @@
       </c>
       <c r="C16" s="2" t="inlineStr">
         <is>
-          <t>18,4%</t>
+          <t>22,8%</t>
         </is>
       </c>
       <c r="D16" s="2" t="inlineStr">
         <is>
-          <t>18,43%</t>
+          <t>20,98%</t>
         </is>
       </c>
       <c r="E16" s="2" t="inlineStr">
         <is>
-          <t>16,78%</t>
+          <t>20,77%</t>
         </is>
       </c>
       <c r="F16" s="2" t="inlineStr">
         <is>
-          <t>33,19%</t>
+          <t>26,64%</t>
         </is>
       </c>
       <c r="G16" s="2" t="inlineStr">
         <is>
-          <t>32,95%</t>
+          <t>33,65%</t>
         </is>
       </c>
       <c r="H16" s="2" t="inlineStr">
         <is>
-          <t>30,85%</t>
+          <t>33,25%</t>
         </is>
       </c>
       <c r="I16" s="2" t="inlineStr">
         <is>
-          <t>26,23%</t>
+          <t>29,57%</t>
         </is>
       </c>
       <c r="J16" s="2" t="inlineStr">
         <is>
-          <t>26,02%</t>
+          <t>36,1%</t>
         </is>
       </c>
       <c r="K16" s="2" t="inlineStr">
         <is>
-          <t>23,94%</t>
+          <t>28,63%</t>
+        </is>
+      </c>
+      <c r="L16" s="2" t="inlineStr">
+        <is>
+          <t>27,41%</t>
+        </is>
+      </c>
+      <c r="M16" s="2" t="inlineStr">
+        <is>
+          <t>25,25%</t>
+        </is>
+      </c>
+      <c r="N16" s="2" t="inlineStr">
+        <is>
+          <t>31,51%</t>
         </is>
       </c>
     </row>
@@ -1345,64 +1565,1712 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>15,28; 23,61</t>
+          <t>18,41; 28,2</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>15,0; 22,11</t>
+          <t>16,48; 26,14</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>13,76; 20,66</t>
+          <t>15,83; 28,19</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>29,63; 36,8</t>
+          <t>20,98; 34,79</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>29,04; 36,86</t>
+          <t>29,11; 37,87</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>26,69; 34,95</t>
+          <t>29,1; 38,56</t>
         </is>
       </c>
       <c r="I17" s="2" t="inlineStr">
         <is>
-          <t>23,44; 29,06</t>
+          <t>25,16; 34,52</t>
         </is>
       </c>
       <c r="J17" s="2" t="inlineStr">
         <is>
-          <t>23,21; 28,73</t>
+          <t>31,13; 42,68</t>
         </is>
       </c>
       <c r="K17" s="2" t="inlineStr">
         <is>
-          <t>21,33; 26,64</t>
+          <t>25,22; 32,42</t>
+        </is>
+      </c>
+      <c r="L17" s="2" t="inlineStr">
+        <is>
+          <t>24,1; 30,9</t>
+        </is>
+      </c>
+      <c r="M17" s="2" t="inlineStr">
+        <is>
+          <t>21,88; 29,22</t>
+        </is>
+      </c>
+      <c r="N17" s="2" t="inlineStr">
+        <is>
+          <t>27,16; 36,11</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>Fuente: Encuesta Sanitaria y Social de Andalucía (Panel 1 en Medición 4)</t>
         </is>
       </c>
     </row>
   </sheetData>
   <mergeCells count="11">
-    <mergeCell ref="C1:E1"/>
     <mergeCell ref="A8:A9"/>
     <mergeCell ref="A12:A13"/>
     <mergeCell ref="A4:A5"/>
-    <mergeCell ref="F1:H1"/>
-    <mergeCell ref="I1:K1"/>
+    <mergeCell ref="A10:A11"/>
     <mergeCell ref="A1:B2"/>
+    <mergeCell ref="C1:F1"/>
     <mergeCell ref="A16:A17"/>
+    <mergeCell ref="G1:J1"/>
     <mergeCell ref="A6:A7"/>
-    <mergeCell ref="A10:A11"/>
+    <mergeCell ref="K1:N1"/>
     <mergeCell ref="A14:A15"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:N25"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight"/>
+      <selection pane="bottomLeft"/>
+      <selection pane="bottomRight" activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <cols>
+    <col width="14" customWidth="1" min="1" max="1"/>
+    <col width="14" customWidth="1" min="2" max="2"/>
+    <col width="14" customWidth="1" min="3" max="3"/>
+    <col width="14" customWidth="1" min="4" max="4"/>
+    <col width="14" customWidth="1" min="5" max="5"/>
+    <col width="14" customWidth="1" min="6" max="6"/>
+    <col width="14" customWidth="1" min="7" max="7"/>
+    <col width="14" customWidth="1" min="8" max="8"/>
+    <col width="14" customWidth="1" min="9" max="9"/>
+    <col width="14" customWidth="1" min="10" max="10"/>
+    <col width="14" customWidth="1" min="11" max="11"/>
+    <col width="14" customWidth="1" min="12" max="12"/>
+    <col width="14" customWidth="1" min="13" max="13"/>
+    <col width="14" customWidth="1" min="14" max="14"/>
+  </cols>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>Población que padece dolor crónico (pecho; espalda, cuello, hombro, cintura (cervical/lumbar); migrañas/jaquecas/cefaleas crónicas/dolor de cabeza frecuente) (tasa de respuesta: 99,92%)</t>
+        </is>
+      </c>
+      <c r="B1" s="2" t="n"/>
+      <c r="C1" s="3" t="inlineStr">
+        <is>
+          <t>Hombre</t>
+        </is>
+      </c>
+      <c r="D1" s="3" t="n"/>
+      <c r="E1" s="3" t="n"/>
+      <c r="F1" s="3" t="n"/>
+      <c r="G1" s="3" t="inlineStr">
+        <is>
+          <t>Mujer</t>
+        </is>
+      </c>
+      <c r="H1" s="3" t="n"/>
+      <c r="I1" s="3" t="n"/>
+      <c r="J1" s="3" t="n"/>
+      <c r="K1" s="3" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="L1" s="3" t="n"/>
+      <c r="M1" s="3" t="n"/>
+      <c r="N1" s="3" t="n"/>
+    </row>
+    <row r="2">
+      <c r="A2" s="4" t="n"/>
+      <c r="B2" s="2" t="n"/>
+      <c r="C2" s="3" t="inlineStr">
+        <is>
+          <t>M2</t>
+        </is>
+      </c>
+      <c r="D2" s="3" t="inlineStr">
+        <is>
+          <t>M3</t>
+        </is>
+      </c>
+      <c r="E2" s="3" t="inlineStr">
+        <is>
+          <t>M4</t>
+        </is>
+      </c>
+      <c r="F2" s="3" t="inlineStr">
+        <is>
+          <t>M5</t>
+        </is>
+      </c>
+      <c r="G2" s="3" t="inlineStr">
+        <is>
+          <t>M2</t>
+        </is>
+      </c>
+      <c r="H2" s="3" t="inlineStr">
+        <is>
+          <t>M3</t>
+        </is>
+      </c>
+      <c r="I2" s="3" t="inlineStr">
+        <is>
+          <t>M4</t>
+        </is>
+      </c>
+      <c r="J2" s="3" t="inlineStr">
+        <is>
+          <t>M5</t>
+        </is>
+      </c>
+      <c r="K2" s="3" t="inlineStr">
+        <is>
+          <t>M2</t>
+        </is>
+      </c>
+      <c r="L2" s="3" t="inlineStr">
+        <is>
+          <t>M3</t>
+        </is>
+      </c>
+      <c r="M2" s="3" t="inlineStr">
+        <is>
+          <t>M4</t>
+        </is>
+      </c>
+      <c r="N2" s="3" t="inlineStr">
+        <is>
+          <t>M5</t>
+        </is>
+      </c>
+    </row>
+    <row r="3" hidden="1">
+      <c r="A3" s="4" t="n"/>
+      <c r="B3" s="2" t="n"/>
+      <c r="C3" s="2" t="n"/>
+      <c r="D3" s="2" t="n"/>
+      <c r="E3" s="2" t="n"/>
+      <c r="F3" s="2" t="n"/>
+      <c r="G3" s="2" t="n"/>
+      <c r="H3" s="2" t="n"/>
+      <c r="I3" s="2" t="n"/>
+      <c r="J3" s="2" t="n"/>
+      <c r="K3" s="2" t="n"/>
+      <c r="L3" s="2" t="n"/>
+      <c r="M3" s="2" t="n"/>
+      <c r="N3" s="2" t="n"/>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="inlineStr">
+        <is>
+          <t>16-24</t>
+        </is>
+      </c>
+      <c r="B4" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C4" s="2" t="inlineStr">
+        <is>
+          <t>4.0</t>
+        </is>
+      </c>
+      <c r="D4" s="2" t="inlineStr">
+        <is>
+          <t>6.0</t>
+        </is>
+      </c>
+      <c r="E4" s="2" t="inlineStr">
+        <is>
+          <t>1.0</t>
+        </is>
+      </c>
+      <c r="F4" s="2" t="inlineStr">
+        <is>
+          <t>8.0</t>
+        </is>
+      </c>
+      <c r="G4" s="2" t="inlineStr">
+        <is>
+          <t>7.0</t>
+        </is>
+      </c>
+      <c r="H4" s="2" t="inlineStr">
+        <is>
+          <t>7.0</t>
+        </is>
+      </c>
+      <c r="I4" s="2" t="inlineStr">
+        <is>
+          <t>5.0</t>
+        </is>
+      </c>
+      <c r="J4" s="2" t="inlineStr">
+        <is>
+          <t>6.0</t>
+        </is>
+      </c>
+      <c r="K4" s="2" t="inlineStr">
+        <is>
+          <t>11.0</t>
+        </is>
+      </c>
+      <c r="L4" s="2" t="inlineStr">
+        <is>
+          <t>13.0</t>
+        </is>
+      </c>
+      <c r="M4" s="2" t="inlineStr">
+        <is>
+          <t>6.0</t>
+        </is>
+      </c>
+      <c r="N4" s="2" t="inlineStr">
+        <is>
+          <t>14.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n"/>
+      <c r="B5" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C5" s="2" t="inlineStr">
+        <is>
+          <t>13281</t>
+        </is>
+      </c>
+      <c r="D5" s="2" t="inlineStr">
+        <is>
+          <t>20212</t>
+        </is>
+      </c>
+      <c r="E5" s="2" t="inlineStr">
+        <is>
+          <t>4989</t>
+        </is>
+      </c>
+      <c r="F5" s="2" t="inlineStr">
+        <is>
+          <t>39175</t>
+        </is>
+      </c>
+      <c r="G5" s="2" t="inlineStr">
+        <is>
+          <t>23537</t>
+        </is>
+      </c>
+      <c r="H5" s="2" t="inlineStr">
+        <is>
+          <t>19153</t>
+        </is>
+      </c>
+      <c r="I5" s="2" t="inlineStr">
+        <is>
+          <t>13798</t>
+        </is>
+      </c>
+      <c r="J5" s="2" t="inlineStr">
+        <is>
+          <t>20760</t>
+        </is>
+      </c>
+      <c r="K5" s="2" t="inlineStr">
+        <is>
+          <t>36818</t>
+        </is>
+      </c>
+      <c r="L5" s="2" t="inlineStr">
+        <is>
+          <t>39365</t>
+        </is>
+      </c>
+      <c r="M5" s="2" t="inlineStr">
+        <is>
+          <t>18787</t>
+        </is>
+      </c>
+      <c r="N5" s="2" t="inlineStr">
+        <is>
+          <t>59935</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n"/>
+      <c r="B6" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C6" s="2" t="inlineStr">
+        <is>
+          <t>3414; 30251</t>
+        </is>
+      </c>
+      <c r="D6" s="2" t="inlineStr">
+        <is>
+          <t>8285; 40420</t>
+        </is>
+      </c>
+      <c r="E6" s="2" t="inlineStr">
+        <is>
+          <t>0; 26604</t>
+        </is>
+      </c>
+      <c r="F6" s="2" t="inlineStr">
+        <is>
+          <t>18850; 67877</t>
+        </is>
+      </c>
+      <c r="G6" s="2" t="inlineStr">
+        <is>
+          <t>10663; 45738</t>
+        </is>
+      </c>
+      <c r="H6" s="2" t="inlineStr">
+        <is>
+          <t>8206; 35402</t>
+        </is>
+      </c>
+      <c r="I6" s="2" t="inlineStr">
+        <is>
+          <t>5113; 28093</t>
+        </is>
+      </c>
+      <c r="J6" s="2" t="inlineStr">
+        <is>
+          <t>7421; 39621</t>
+        </is>
+      </c>
+      <c r="K6" s="2" t="inlineStr">
+        <is>
+          <t>20955; 61067</t>
+        </is>
+      </c>
+      <c r="L6" s="2" t="inlineStr">
+        <is>
+          <t>22127; 62605</t>
+        </is>
+      </c>
+      <c r="M6" s="2" t="inlineStr">
+        <is>
+          <t>7652; 38148</t>
+        </is>
+      </c>
+      <c r="N6" s="2" t="inlineStr">
+        <is>
+          <t>37063; 92425</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="inlineStr">
+        <is>
+          <t>25-34</t>
+        </is>
+      </c>
+      <c r="B7" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C7" s="2" t="inlineStr">
+        <is>
+          <t>7.0</t>
+        </is>
+      </c>
+      <c r="D7" s="2" t="inlineStr">
+        <is>
+          <t>9.0</t>
+        </is>
+      </c>
+      <c r="E7" s="2" t="inlineStr">
+        <is>
+          <t>12.0</t>
+        </is>
+      </c>
+      <c r="F7" s="2" t="inlineStr">
+        <is>
+          <t>10.0</t>
+        </is>
+      </c>
+      <c r="G7" s="2" t="inlineStr">
+        <is>
+          <t>15.0</t>
+        </is>
+      </c>
+      <c r="H7" s="2" t="inlineStr">
+        <is>
+          <t>18.0</t>
+        </is>
+      </c>
+      <c r="I7" s="2" t="inlineStr">
+        <is>
+          <t>14.0</t>
+        </is>
+      </c>
+      <c r="J7" s="2" t="inlineStr">
+        <is>
+          <t>16.0</t>
+        </is>
+      </c>
+      <c r="K7" s="2" t="inlineStr">
+        <is>
+          <t>22.0</t>
+        </is>
+      </c>
+      <c r="L7" s="2" t="inlineStr">
+        <is>
+          <t>27.0</t>
+        </is>
+      </c>
+      <c r="M7" s="2" t="inlineStr">
+        <is>
+          <t>26.0</t>
+        </is>
+      </c>
+      <c r="N7" s="2" t="inlineStr">
+        <is>
+          <t>26.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n"/>
+      <c r="B8" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C8" s="2" t="inlineStr">
+        <is>
+          <t>22664</t>
+        </is>
+      </c>
+      <c r="D8" s="2" t="inlineStr">
+        <is>
+          <t>26314</t>
+        </is>
+      </c>
+      <c r="E8" s="2" t="inlineStr">
+        <is>
+          <t>51252</t>
+        </is>
+      </c>
+      <c r="F8" s="2" t="inlineStr">
+        <is>
+          <t>64500</t>
+        </is>
+      </c>
+      <c r="G8" s="2" t="inlineStr">
+        <is>
+          <t>44037</t>
+        </is>
+      </c>
+      <c r="H8" s="2" t="inlineStr">
+        <is>
+          <t>40573</t>
+        </is>
+      </c>
+      <c r="I8" s="2" t="inlineStr">
+        <is>
+          <t>30739</t>
+        </is>
+      </c>
+      <c r="J8" s="2" t="inlineStr">
+        <is>
+          <t>48776</t>
+        </is>
+      </c>
+      <c r="K8" s="2" t="inlineStr">
+        <is>
+          <t>66700</t>
+        </is>
+      </c>
+      <c r="L8" s="2" t="inlineStr">
+        <is>
+          <t>66887</t>
+        </is>
+      </c>
+      <c r="M8" s="2" t="inlineStr">
+        <is>
+          <t>81991</t>
+        </is>
+      </c>
+      <c r="N8" s="2" t="inlineStr">
+        <is>
+          <t>113276</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n"/>
+      <c r="B9" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C9" s="2" t="inlineStr">
+        <is>
+          <t>8707; 47940</t>
+        </is>
+      </c>
+      <c r="D9" s="2" t="inlineStr">
+        <is>
+          <t>11696; 47954</t>
+        </is>
+      </c>
+      <c r="E9" s="2" t="inlineStr">
+        <is>
+          <t>24026; 92290</t>
+        </is>
+      </c>
+      <c r="F9" s="2" t="inlineStr">
+        <is>
+          <t>24549; 130067</t>
+        </is>
+      </c>
+      <c r="G9" s="2" t="inlineStr">
+        <is>
+          <t>26023; 65447</t>
+        </is>
+      </c>
+      <c r="H9" s="2" t="inlineStr">
+        <is>
+          <t>25122; 55914</t>
+        </is>
+      </c>
+      <c r="I9" s="2" t="inlineStr">
+        <is>
+          <t>18551; 47496</t>
+        </is>
+      </c>
+      <c r="J9" s="2" t="inlineStr">
+        <is>
+          <t>30060; 74552</t>
+        </is>
+      </c>
+      <c r="K9" s="2" t="inlineStr">
+        <is>
+          <t>40437; 96992</t>
+        </is>
+      </c>
+      <c r="L9" s="2" t="inlineStr">
+        <is>
+          <t>42561; 94200</t>
+        </is>
+      </c>
+      <c r="M9" s="2" t="inlineStr">
+        <is>
+          <t>49739; 127497</t>
+        </is>
+      </c>
+      <c r="N9" s="2" t="inlineStr">
+        <is>
+          <t>66010; 185252</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="inlineStr">
+        <is>
+          <t>35-44</t>
+        </is>
+      </c>
+      <c r="B10" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C10" s="2" t="inlineStr">
+        <is>
+          <t>13.0</t>
+        </is>
+      </c>
+      <c r="D10" s="2" t="inlineStr">
+        <is>
+          <t>9.0</t>
+        </is>
+      </c>
+      <c r="E10" s="2" t="inlineStr">
+        <is>
+          <t>10.0</t>
+        </is>
+      </c>
+      <c r="F10" s="2" t="inlineStr">
+        <is>
+          <t>6.0</t>
+        </is>
+      </c>
+      <c r="G10" s="2" t="inlineStr">
+        <is>
+          <t>30.0</t>
+        </is>
+      </c>
+      <c r="H10" s="2" t="inlineStr">
+        <is>
+          <t>28.0</t>
+        </is>
+      </c>
+      <c r="I10" s="2" t="inlineStr">
+        <is>
+          <t>26.0</t>
+        </is>
+      </c>
+      <c r="J10" s="2" t="inlineStr">
+        <is>
+          <t>25.0</t>
+        </is>
+      </c>
+      <c r="K10" s="2" t="inlineStr">
+        <is>
+          <t>43.0</t>
+        </is>
+      </c>
+      <c r="L10" s="2" t="inlineStr">
+        <is>
+          <t>37.0</t>
+        </is>
+      </c>
+      <c r="M10" s="2" t="inlineStr">
+        <is>
+          <t>36.0</t>
+        </is>
+      </c>
+      <c r="N10" s="2" t="inlineStr">
+        <is>
+          <t>31.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="n"/>
+      <c r="B11" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C11" s="2" t="inlineStr">
+        <is>
+          <t>35697</t>
+        </is>
+      </c>
+      <c r="D11" s="2" t="inlineStr">
+        <is>
+          <t>22028</t>
+        </is>
+      </c>
+      <c r="E11" s="2" t="inlineStr">
+        <is>
+          <t>23961</t>
+        </is>
+      </c>
+      <c r="F11" s="2" t="inlineStr">
+        <is>
+          <t>17104</t>
+        </is>
+      </c>
+      <c r="G11" s="2" t="inlineStr">
+        <is>
+          <t>76545</t>
+        </is>
+      </c>
+      <c r="H11" s="2" t="inlineStr">
+        <is>
+          <t>56043</t>
+        </is>
+      </c>
+      <c r="I11" s="2" t="inlineStr">
+        <is>
+          <t>51510</t>
+        </is>
+      </c>
+      <c r="J11" s="2" t="inlineStr">
+        <is>
+          <t>59629</t>
+        </is>
+      </c>
+      <c r="K11" s="2" t="inlineStr">
+        <is>
+          <t>112242</t>
+        </is>
+      </c>
+      <c r="L11" s="2" t="inlineStr">
+        <is>
+          <t>78071</t>
+        </is>
+      </c>
+      <c r="M11" s="2" t="inlineStr">
+        <is>
+          <t>75472</t>
+        </is>
+      </c>
+      <c r="N11" s="2" t="inlineStr">
+        <is>
+          <t>76734</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="n"/>
+      <c r="B12" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C12" s="2" t="inlineStr">
+        <is>
+          <t>20117; 55876</t>
+        </is>
+      </c>
+      <c r="D12" s="2" t="inlineStr">
+        <is>
+          <t>11555; 35982</t>
+        </is>
+      </c>
+      <c r="E12" s="2" t="inlineStr">
+        <is>
+          <t>12201; 39147</t>
+        </is>
+      </c>
+      <c r="F12" s="2" t="inlineStr">
+        <is>
+          <t>6746; 34525</t>
+        </is>
+      </c>
+      <c r="G12" s="2" t="inlineStr">
+        <is>
+          <t>54516; 100684</t>
+        </is>
+      </c>
+      <c r="H12" s="2" t="inlineStr">
+        <is>
+          <t>40679; 76071</t>
+        </is>
+      </c>
+      <c r="I12" s="2" t="inlineStr">
+        <is>
+          <t>35413; 69376</t>
+        </is>
+      </c>
+      <c r="J12" s="2" t="inlineStr">
+        <is>
+          <t>40197; 82689</t>
+        </is>
+      </c>
+      <c r="K12" s="2" t="inlineStr">
+        <is>
+          <t>85827; 144226</t>
+        </is>
+      </c>
+      <c r="L12" s="2" t="inlineStr">
+        <is>
+          <t>56902; 100913</t>
+        </is>
+      </c>
+      <c r="M12" s="2" t="inlineStr">
+        <is>
+          <t>52785; 97719</t>
+        </is>
+      </c>
+      <c r="N12" s="2" t="inlineStr">
+        <is>
+          <t>51644; 102149</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="inlineStr">
+        <is>
+          <t>45-54</t>
+        </is>
+      </c>
+      <c r="B13" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C13" s="2" t="inlineStr">
+        <is>
+          <t>21.0</t>
+        </is>
+      </c>
+      <c r="D13" s="2" t="inlineStr">
+        <is>
+          <t>20.0</t>
+        </is>
+      </c>
+      <c r="E13" s="2" t="inlineStr">
+        <is>
+          <t>20.0</t>
+        </is>
+      </c>
+      <c r="F13" s="2" t="inlineStr">
+        <is>
+          <t>29.0</t>
+        </is>
+      </c>
+      <c r="G13" s="2" t="inlineStr">
+        <is>
+          <t>40.0</t>
+        </is>
+      </c>
+      <c r="H13" s="2" t="inlineStr">
+        <is>
+          <t>37.0</t>
+        </is>
+      </c>
+      <c r="I13" s="2" t="inlineStr">
+        <is>
+          <t>33.0</t>
+        </is>
+      </c>
+      <c r="J13" s="2" t="inlineStr">
+        <is>
+          <t>37.0</t>
+        </is>
+      </c>
+      <c r="K13" s="2" t="inlineStr">
+        <is>
+          <t>61.0</t>
+        </is>
+      </c>
+      <c r="L13" s="2" t="inlineStr">
+        <is>
+          <t>57.0</t>
+        </is>
+      </c>
+      <c r="M13" s="2" t="inlineStr">
+        <is>
+          <t>53.0</t>
+        </is>
+      </c>
+      <c r="N13" s="2" t="inlineStr">
+        <is>
+          <t>66.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="1" t="n"/>
+      <c r="B14" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C14" s="2" t="inlineStr">
+        <is>
+          <t>49754</t>
+        </is>
+      </c>
+      <c r="D14" s="2" t="inlineStr">
+        <is>
+          <t>41097</t>
+        </is>
+      </c>
+      <c r="E14" s="2" t="inlineStr">
+        <is>
+          <t>37142</t>
+        </is>
+      </c>
+      <c r="F14" s="2" t="inlineStr">
+        <is>
+          <t>72137</t>
+        </is>
+      </c>
+      <c r="G14" s="2" t="inlineStr">
+        <is>
+          <t>86907</t>
+        </is>
+      </c>
+      <c r="H14" s="2" t="inlineStr">
+        <is>
+          <t>67130</t>
+        </is>
+      </c>
+      <c r="I14" s="2" t="inlineStr">
+        <is>
+          <t>57358</t>
+        </is>
+      </c>
+      <c r="J14" s="2" t="inlineStr">
+        <is>
+          <t>79682</t>
+        </is>
+      </c>
+      <c r="K14" s="2" t="inlineStr">
+        <is>
+          <t>136661</t>
+        </is>
+      </c>
+      <c r="L14" s="2" t="inlineStr">
+        <is>
+          <t>108226</t>
+        </is>
+      </c>
+      <c r="M14" s="2" t="inlineStr">
+        <is>
+          <t>94499</t>
+        </is>
+      </c>
+      <c r="N14" s="2" t="inlineStr">
+        <is>
+          <t>151818</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="1" t="n"/>
+      <c r="B15" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C15" s="2" t="inlineStr">
+        <is>
+          <t>32732; 68581</t>
+        </is>
+      </c>
+      <c r="D15" s="2" t="inlineStr">
+        <is>
+          <t>27164; 58504</t>
+        </is>
+      </c>
+      <c r="E15" s="2" t="inlineStr">
+        <is>
+          <t>24417; 52279</t>
+        </is>
+      </c>
+      <c r="F15" s="2" t="inlineStr">
+        <is>
+          <t>50983; 95604</t>
+        </is>
+      </c>
+      <c r="G15" s="2" t="inlineStr">
+        <is>
+          <t>67091; 108145</t>
+        </is>
+      </c>
+      <c r="H15" s="2" t="inlineStr">
+        <is>
+          <t>50647; 84139</t>
+        </is>
+      </c>
+      <c r="I15" s="2" t="inlineStr">
+        <is>
+          <t>43664; 74831</t>
+        </is>
+      </c>
+      <c r="J15" s="2" t="inlineStr">
+        <is>
+          <t>61335; 101541</t>
+        </is>
+      </c>
+      <c r="K15" s="2" t="inlineStr">
+        <is>
+          <t>108134; 165201</t>
+        </is>
+      </c>
+      <c r="L15" s="2" t="inlineStr">
+        <is>
+          <t>86266; 132960</t>
+        </is>
+      </c>
+      <c r="M15" s="2" t="inlineStr">
+        <is>
+          <t>74210; 115337</t>
+        </is>
+      </c>
+      <c r="N15" s="2" t="inlineStr">
+        <is>
+          <t>122993; 181542</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="1" t="inlineStr">
+        <is>
+          <t>55-64</t>
+        </is>
+      </c>
+      <c r="B16" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C16" s="2" t="inlineStr">
+        <is>
+          <t>18.0</t>
+        </is>
+      </c>
+      <c r="D16" s="2" t="inlineStr">
+        <is>
+          <t>18.0</t>
+        </is>
+      </c>
+      <c r="E16" s="2" t="inlineStr">
+        <is>
+          <t>17.0</t>
+        </is>
+      </c>
+      <c r="F16" s="2" t="inlineStr">
+        <is>
+          <t>20.0</t>
+        </is>
+      </c>
+      <c r="G16" s="2" t="inlineStr">
+        <is>
+          <t>20.0</t>
+        </is>
+      </c>
+      <c r="H16" s="2" t="inlineStr">
+        <is>
+          <t>22.0</t>
+        </is>
+      </c>
+      <c r="I16" s="2" t="inlineStr">
+        <is>
+          <t>22.0</t>
+        </is>
+      </c>
+      <c r="J16" s="2" t="inlineStr">
+        <is>
+          <t>30.0</t>
+        </is>
+      </c>
+      <c r="K16" s="2" t="inlineStr">
+        <is>
+          <t>38.0</t>
+        </is>
+      </c>
+      <c r="L16" s="2" t="inlineStr">
+        <is>
+          <t>40.0</t>
+        </is>
+      </c>
+      <c r="M16" s="2" t="inlineStr">
+        <is>
+          <t>39.0</t>
+        </is>
+      </c>
+      <c r="N16" s="2" t="inlineStr">
+        <is>
+          <t>50.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="1" t="n"/>
+      <c r="B17" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C17" s="2" t="inlineStr">
+        <is>
+          <t>41039</t>
+        </is>
+      </c>
+      <c r="D17" s="2" t="inlineStr">
+        <is>
+          <t>33338</t>
+        </is>
+      </c>
+      <c r="E17" s="2" t="inlineStr">
+        <is>
+          <t>30813</t>
+        </is>
+      </c>
+      <c r="F17" s="2" t="inlineStr">
+        <is>
+          <t>45996</t>
+        </is>
+      </c>
+      <c r="G17" s="2" t="inlineStr">
+        <is>
+          <t>44809</t>
+        </is>
+      </c>
+      <c r="H17" s="2" t="inlineStr">
+        <is>
+          <t>40576</t>
+        </is>
+      </c>
+      <c r="I17" s="2" t="inlineStr">
+        <is>
+          <t>40759</t>
+        </is>
+      </c>
+      <c r="J17" s="2" t="inlineStr">
+        <is>
+          <t>79123</t>
+        </is>
+      </c>
+      <c r="K17" s="2" t="inlineStr">
+        <is>
+          <t>85848</t>
+        </is>
+      </c>
+      <c r="L17" s="2" t="inlineStr">
+        <is>
+          <t>73915</t>
+        </is>
+      </c>
+      <c r="M17" s="2" t="inlineStr">
+        <is>
+          <t>71572</t>
+        </is>
+      </c>
+      <c r="N17" s="2" t="inlineStr">
+        <is>
+          <t>125119</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="1" t="n"/>
+      <c r="B18" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C18" s="2" t="inlineStr">
+        <is>
+          <t>24573; 57763</t>
+        </is>
+      </c>
+      <c r="D18" s="2" t="inlineStr">
+        <is>
+          <t>20615; 49089</t>
+        </is>
+      </c>
+      <c r="E18" s="2" t="inlineStr">
+        <is>
+          <t>18195; 45290</t>
+        </is>
+      </c>
+      <c r="F18" s="2" t="inlineStr">
+        <is>
+          <t>28438; 64173</t>
+        </is>
+      </c>
+      <c r="G18" s="2" t="inlineStr">
+        <is>
+          <t>30134; 61040</t>
+        </is>
+      </c>
+      <c r="H18" s="2" t="inlineStr">
+        <is>
+          <t>28640; 53472</t>
+        </is>
+      </c>
+      <c r="I18" s="2" t="inlineStr">
+        <is>
+          <t>28991; 54210</t>
+        </is>
+      </c>
+      <c r="J18" s="2" t="inlineStr">
+        <is>
+          <t>58595; 97822</t>
+        </is>
+      </c>
+      <c r="K18" s="2" t="inlineStr">
+        <is>
+          <t>61832; 108161</t>
+        </is>
+      </c>
+      <c r="L18" s="2" t="inlineStr">
+        <is>
+          <t>54482; 92688</t>
+        </is>
+      </c>
+      <c r="M18" s="2" t="inlineStr">
+        <is>
+          <t>52711; 89922</t>
+        </is>
+      </c>
+      <c r="N18" s="2" t="inlineStr">
+        <is>
+          <t>99831; 152360</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="1" t="inlineStr">
+        <is>
+          <t>65 Y MAS</t>
+        </is>
+      </c>
+      <c r="B19" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C19" s="2" t="inlineStr">
+        <is>
+          <t>14.0</t>
+        </is>
+      </c>
+      <c r="D19" s="2" t="inlineStr">
+        <is>
+          <t>8.0</t>
+        </is>
+      </c>
+      <c r="E19" s="2" t="inlineStr">
+        <is>
+          <t>7.0</t>
+        </is>
+      </c>
+      <c r="F19" s="2" t="inlineStr">
+        <is>
+          <t>12.0</t>
+        </is>
+      </c>
+      <c r="G19" s="2" t="inlineStr">
+        <is>
+          <t>23.0</t>
+        </is>
+      </c>
+      <c r="H19" s="2" t="inlineStr">
+        <is>
+          <t>23.0</t>
+        </is>
+      </c>
+      <c r="I19" s="2" t="inlineStr">
+        <is>
+          <t>19.0</t>
+        </is>
+      </c>
+      <c r="J19" s="2" t="inlineStr">
+        <is>
+          <t>20.0</t>
+        </is>
+      </c>
+      <c r="K19" s="2" t="inlineStr">
+        <is>
+          <t>37.0</t>
+        </is>
+      </c>
+      <c r="L19" s="2" t="inlineStr">
+        <is>
+          <t>31.0</t>
+        </is>
+      </c>
+      <c r="M19" s="2" t="inlineStr">
+        <is>
+          <t>26.0</t>
+        </is>
+      </c>
+      <c r="N19" s="2" t="inlineStr">
+        <is>
+          <t>32.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="1" t="n"/>
+      <c r="B20" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C20" s="2" t="inlineStr">
+        <is>
+          <t>39816</t>
+        </is>
+      </c>
+      <c r="D20" s="2" t="inlineStr">
+        <is>
+          <t>17348</t>
+        </is>
+      </c>
+      <c r="E20" s="2" t="inlineStr">
+        <is>
+          <t>15703</t>
+        </is>
+      </c>
+      <c r="F20" s="2" t="inlineStr">
+        <is>
+          <t>40219</t>
+        </is>
+      </c>
+      <c r="G20" s="2" t="inlineStr">
+        <is>
+          <t>71760</t>
+        </is>
+      </c>
+      <c r="H20" s="2" t="inlineStr">
+        <is>
+          <t>56201</t>
+        </is>
+      </c>
+      <c r="I20" s="2" t="inlineStr">
+        <is>
+          <t>48156</t>
+        </is>
+      </c>
+      <c r="J20" s="2" t="inlineStr">
+        <is>
+          <t>112105</t>
+        </is>
+      </c>
+      <c r="K20" s="2" t="inlineStr">
+        <is>
+          <t>111575</t>
+        </is>
+      </c>
+      <c r="L20" s="2" t="inlineStr">
+        <is>
+          <t>73550</t>
+        </is>
+      </c>
+      <c r="M20" s="2" t="inlineStr">
+        <is>
+          <t>63859</t>
+        </is>
+      </c>
+      <c r="N20" s="2" t="inlineStr">
+        <is>
+          <t>152324</t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="1" t="n"/>
+      <c r="B21" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C21" s="2" t="inlineStr">
+        <is>
+          <t>23005; 56205</t>
+        </is>
+      </c>
+      <c r="D21" s="2" t="inlineStr">
+        <is>
+          <t>8584; 30221</t>
+        </is>
+      </c>
+      <c r="E21" s="2" t="inlineStr">
+        <is>
+          <t>6625; 28090</t>
+        </is>
+      </c>
+      <c r="F21" s="2" t="inlineStr">
+        <is>
+          <t>22211; 62469</t>
+        </is>
+      </c>
+      <c r="G21" s="2" t="inlineStr">
+        <is>
+          <t>50763; 91321</t>
+        </is>
+      </c>
+      <c r="H21" s="2" t="inlineStr">
+        <is>
+          <t>40078; 73309</t>
+        </is>
+      </c>
+      <c r="I21" s="2" t="inlineStr">
+        <is>
+          <t>30061; 64664</t>
+        </is>
+      </c>
+      <c r="J21" s="2" t="inlineStr">
+        <is>
+          <t>76837; 152531</t>
+        </is>
+      </c>
+      <c r="K21" s="2" t="inlineStr">
+        <is>
+          <t>86842; 139712</t>
+        </is>
+      </c>
+      <c r="L21" s="2" t="inlineStr">
+        <is>
+          <t>54388; 95315</t>
+        </is>
+      </c>
+      <c r="M21" s="2" t="inlineStr">
+        <is>
+          <t>45291; 88301</t>
+        </is>
+      </c>
+      <c r="N21" s="2" t="inlineStr">
+        <is>
+          <t>107227; 197392</t>
+        </is>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="1" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="B22" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C22" s="2" t="inlineStr">
+        <is>
+          <t>77.0</t>
+        </is>
+      </c>
+      <c r="D22" s="2" t="inlineStr">
+        <is>
+          <t>70.0</t>
+        </is>
+      </c>
+      <c r="E22" s="2" t="inlineStr">
+        <is>
+          <t>67.0</t>
+        </is>
+      </c>
+      <c r="F22" s="2" t="inlineStr">
+        <is>
+          <t>85.0</t>
+        </is>
+      </c>
+      <c r="G22" s="2" t="inlineStr">
+        <is>
+          <t>135.0</t>
+        </is>
+      </c>
+      <c r="H22" s="2" t="inlineStr">
+        <is>
+          <t>135.0</t>
+        </is>
+      </c>
+      <c r="I22" s="2" t="inlineStr">
+        <is>
+          <t>119.0</t>
+        </is>
+      </c>
+      <c r="J22" s="2" t="inlineStr">
+        <is>
+          <t>134.0</t>
+        </is>
+      </c>
+      <c r="K22" s="2" t="inlineStr">
+        <is>
+          <t>212.0</t>
+        </is>
+      </c>
+      <c r="L22" s="2" t="inlineStr">
+        <is>
+          <t>205.0</t>
+        </is>
+      </c>
+      <c r="M22" s="2" t="inlineStr">
+        <is>
+          <t>186.0</t>
+        </is>
+      </c>
+      <c r="N22" s="2" t="inlineStr">
+        <is>
+          <t>219.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="1" t="n"/>
+      <c r="B23" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C23" s="2" t="inlineStr">
+        <is>
+          <t>202251</t>
+        </is>
+      </c>
+      <c r="D23" s="2" t="inlineStr">
+        <is>
+          <t>160338</t>
+        </is>
+      </c>
+      <c r="E23" s="2" t="inlineStr">
+        <is>
+          <t>163859</t>
+        </is>
+      </c>
+      <c r="F23" s="2" t="inlineStr">
+        <is>
+          <t>279130</t>
+        </is>
+      </c>
+      <c r="G23" s="2" t="inlineStr">
+        <is>
+          <t>347595</t>
+        </is>
+      </c>
+      <c r="H23" s="2" t="inlineStr">
+        <is>
+          <t>279676</t>
+        </is>
+      </c>
+      <c r="I23" s="2" t="inlineStr">
+        <is>
+          <t>242321</t>
+        </is>
+      </c>
+      <c r="J23" s="2" t="inlineStr">
+        <is>
+          <t>400075</t>
+        </is>
+      </c>
+      <c r="K23" s="2" t="inlineStr">
+        <is>
+          <t>549846</t>
+        </is>
+      </c>
+      <c r="L23" s="2" t="inlineStr">
+        <is>
+          <t>440014</t>
+        </is>
+      </c>
+      <c r="M23" s="2" t="inlineStr">
+        <is>
+          <t>406180</t>
+        </is>
+      </c>
+      <c r="N23" s="2" t="inlineStr">
+        <is>
+          <t>679205</t>
+        </is>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="1" t="n"/>
+      <c r="B24" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C24" s="2" t="inlineStr">
+        <is>
+          <t>163361; 250232</t>
+        </is>
+      </c>
+      <c r="D24" s="2" t="inlineStr">
+        <is>
+          <t>125917; 199704</t>
+        </is>
+      </c>
+      <c r="E24" s="2" t="inlineStr">
+        <is>
+          <t>124905; 222453</t>
+        </is>
+      </c>
+      <c r="F24" s="2" t="inlineStr">
+        <is>
+          <t>219780; 364494</t>
+        </is>
+      </c>
+      <c r="G24" s="2" t="inlineStr">
+        <is>
+          <t>300707; 391153</t>
+        </is>
+      </c>
+      <c r="H24" s="2" t="inlineStr">
+        <is>
+          <t>244715; 324302</t>
+        </is>
+      </c>
+      <c r="I24" s="2" t="inlineStr">
+        <is>
+          <t>206176; 282944</t>
+        </is>
+      </c>
+      <c r="J24" s="2" t="inlineStr">
+        <is>
+          <t>344982; 473003</t>
+        </is>
+      </c>
+      <c r="K24" s="2" t="inlineStr">
+        <is>
+          <t>484340; 622434</t>
+        </is>
+      </c>
+      <c r="L24" s="2" t="inlineStr">
+        <is>
+          <t>386816; 496032</t>
+        </is>
+      </c>
+      <c r="M24" s="2" t="inlineStr">
+        <is>
+          <t>351954; 470035</t>
+        </is>
+      </c>
+      <c r="N24" s="2" t="inlineStr">
+        <is>
+          <t>585446; 778416</t>
+        </is>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="inlineStr">
+        <is>
+          <t>Fuente: Encuesta Sanitaria y Social de Andalucía (Panel 1 en Medición 4)</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="11">
+    <mergeCell ref="A7:A9"/>
+    <mergeCell ref="A4:A6"/>
+    <mergeCell ref="A16:A18"/>
+    <mergeCell ref="A10:A12"/>
+    <mergeCell ref="A19:A21"/>
+    <mergeCell ref="A1:B2"/>
+    <mergeCell ref="C1:F1"/>
+    <mergeCell ref="G1:J1"/>
+    <mergeCell ref="K1:N1"/>
+    <mergeCell ref="A22:A24"/>
+    <mergeCell ref="A13:A15"/>
+  </mergeCells>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>